--- a/Maher/Test.xlsx
+++ b/Maher/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="457">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -65,582 +65,714 @@
     <t>FSCU5021406</t>
   </si>
   <si>
-    <t>MOTU1400027</t>
+    <t>OOLU4215982</t>
+  </si>
+  <si>
+    <t>COSCO VIETNAM</t>
+  </si>
+  <si>
+    <t>050W</t>
+  </si>
+  <si>
+    <t>9076905020-01</t>
+  </si>
+  <si>
+    <t>OOLU2106097520</t>
+  </si>
+  <si>
+    <t>CCLU4862197</t>
+  </si>
+  <si>
+    <t>COSCO EXCELLENCE</t>
+  </si>
+  <si>
+    <t>00047</t>
+  </si>
+  <si>
+    <t>DJJFKA4144430</t>
+  </si>
+  <si>
+    <t>7062177652</t>
+  </si>
+  <si>
+    <t>COSU6202943940</t>
+  </si>
+  <si>
+    <t>GCNU4769721</t>
   </si>
   <si>
     <t>BILBAO BRIDGE</t>
   </si>
   <si>
+    <t>BLB0719</t>
+  </si>
+  <si>
+    <t>SA003855280101</t>
+  </si>
+  <si>
+    <t>BLB0719SA00385528</t>
+  </si>
+  <si>
+    <t>OOLU9534386</t>
+  </si>
+  <si>
+    <t>9076905019-01</t>
+  </si>
+  <si>
+    <t>OOCU7043026</t>
+  </si>
+  <si>
+    <t>9076905018-01</t>
+  </si>
+  <si>
+    <t>FDCU0354447</t>
+  </si>
+  <si>
+    <t>ZIM MONACO</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>CHI1231141-CHI8397436</t>
+  </si>
+  <si>
+    <t>GOAV18181500</t>
+  </si>
+  <si>
+    <t>CBHU8259319</t>
+  </si>
+  <si>
+    <t>EVER LAMBENT</t>
+  </si>
+  <si>
+    <t>00897</t>
+  </si>
+  <si>
+    <t>7300380824</t>
+  </si>
+  <si>
+    <t>COSU6134263920</t>
+  </si>
+  <si>
+    <t>CCLU7636233</t>
+  </si>
+  <si>
+    <t>BMOU5597518</t>
+  </si>
+  <si>
+    <t>FSCU8584445</t>
+  </si>
+  <si>
+    <t>CBHU8155103</t>
+  </si>
+  <si>
+    <t>CCLU7955523</t>
+  </si>
+  <si>
+    <t>CBHU9526240</t>
+  </si>
+  <si>
+    <t>MAGU5201717</t>
+  </si>
+  <si>
+    <t>CCLU7218167</t>
+  </si>
+  <si>
+    <t>DFSU6851608</t>
+  </si>
+  <si>
+    <t>CCLU7756373</t>
+  </si>
+  <si>
+    <t>CCLU7657067</t>
+  </si>
+  <si>
+    <t>ACLU9749998</t>
+  </si>
+  <si>
+    <t>SA003725450101</t>
+  </si>
+  <si>
+    <t>BLB0719SA00372545</t>
+  </si>
+  <si>
+    <t>GESU4874061</t>
+  </si>
+  <si>
+    <t>00371</t>
+  </si>
+  <si>
+    <t>7300384175</t>
+  </si>
+  <si>
+    <t>APLUAKV0108499</t>
+  </si>
+  <si>
+    <t>BEAU4089694</t>
+  </si>
+  <si>
+    <t>BMOU5249575</t>
+  </si>
+  <si>
+    <t>CSNU1009152</t>
+  </si>
+  <si>
+    <t>COSCO SHIPPING PEONY</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>DJBOSA4161324</t>
+  </si>
+  <si>
+    <t>7120853547</t>
+  </si>
+  <si>
+    <t>6205023853</t>
+  </si>
+  <si>
+    <t>TCNU6659310</t>
+  </si>
+  <si>
+    <t>CMA CGM J. MADISON</t>
+  </si>
+  <si>
+    <t>0MB2TE1MA</t>
+  </si>
+  <si>
+    <t>9076905648-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432281</t>
+  </si>
+  <si>
+    <t>UACU8449464</t>
+  </si>
+  <si>
+    <t>00024</t>
+  </si>
+  <si>
+    <t>DJPHLA4168197</t>
+  </si>
+  <si>
+    <t>7300384530</t>
+  </si>
+  <si>
+    <t>HLCUVIE190411943</t>
+  </si>
+  <si>
+    <t>YMMU6252814</t>
+  </si>
+  <si>
+    <t>AL2918W</t>
+  </si>
+  <si>
+    <t>9076905851-01</t>
+  </si>
+  <si>
+    <t>T936034069</t>
+  </si>
+  <si>
+    <t>OOCU6917810</t>
+  </si>
+  <si>
+    <t>OOCL ASIA</t>
+  </si>
+  <si>
+    <t>132W</t>
+  </si>
+  <si>
+    <t>9077905573-01</t>
+  </si>
+  <si>
+    <t>2106836630</t>
+  </si>
+  <si>
+    <t>CSNU1033565</t>
+  </si>
+  <si>
+    <t>OOCL BERLIN</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>DJJFKA4183028</t>
+  </si>
+  <si>
+    <t>7062176299</t>
+  </si>
+  <si>
+    <t>COSU6205079920</t>
+  </si>
+  <si>
+    <t>HLBU1326228</t>
+  </si>
+  <si>
+    <t>00067</t>
+  </si>
+  <si>
+    <t>DJJFKA4167031</t>
+  </si>
+  <si>
+    <t>7062173628</t>
+  </si>
+  <si>
+    <t>IZ1190444688</t>
+  </si>
+  <si>
+    <t>TCLU6456892</t>
+  </si>
+  <si>
+    <t>9076905630-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432265</t>
+  </si>
+  <si>
+    <t>SEGU5890164</t>
+  </si>
+  <si>
+    <t>9076905647-01</t>
+  </si>
+  <si>
+    <t>OOCU6538735</t>
+  </si>
+  <si>
+    <t>7300384709</t>
+  </si>
+  <si>
+    <t>OOLU2106750420</t>
+  </si>
+  <si>
+    <t>MAGU2299908</t>
+  </si>
+  <si>
+    <t>MB2TE</t>
+  </si>
+  <si>
+    <t>7062171834</t>
+  </si>
+  <si>
+    <t>COSU6063186710</t>
+  </si>
+  <si>
+    <t>EITU0025532</t>
+  </si>
+  <si>
+    <t>9077905237-01</t>
+  </si>
+  <si>
+    <t>EGLV567900007551</t>
+  </si>
+  <si>
+    <t>EISU1849353</t>
+  </si>
+  <si>
+    <t>9076905737-01</t>
+  </si>
+  <si>
+    <t>EGLV567900007497</t>
+  </si>
+  <si>
+    <t>BEAU4698134</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>7300382794</t>
+  </si>
+  <si>
+    <t>COSU6199381020</t>
+  </si>
+  <si>
+    <t>TGHU6232720</t>
+  </si>
+  <si>
+    <t>TLLU4503416</t>
+  </si>
+  <si>
+    <t>7300381962</t>
+  </si>
+  <si>
+    <t>COSU6199380900</t>
+  </si>
+  <si>
+    <t>CSNU6903570</t>
+  </si>
+  <si>
+    <t>GCNU1307972</t>
+  </si>
+  <si>
+    <t>EMP2219</t>
+  </si>
+  <si>
+    <t>SA003851470101</t>
+  </si>
+  <si>
+    <t>EMP2219SA00385147</t>
+  </si>
+  <si>
+    <t>TGHU4936187</t>
+  </si>
+  <si>
+    <t>OLB3</t>
+  </si>
+  <si>
+    <t>7250580273</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>CMAU9012563</t>
+  </si>
+  <si>
+    <t>SEGU3215188</t>
+  </si>
+  <si>
+    <t>DJJFKA4148235</t>
+  </si>
+  <si>
+    <t>7062168460</t>
+  </si>
+  <si>
+    <t>COSU6198329690</t>
+  </si>
+  <si>
+    <t>FCIU7204670</t>
+  </si>
+  <si>
+    <t>7062179647</t>
+  </si>
+  <si>
+    <t>COSU4520641190</t>
+  </si>
+  <si>
+    <t>CSNU6922502</t>
+  </si>
+  <si>
+    <t>CSNU6020679</t>
+  </si>
+  <si>
+    <t>CAIU4508671</t>
+  </si>
+  <si>
+    <t>TCNU9616693</t>
+  </si>
+  <si>
+    <t>TLLU6088680</t>
+  </si>
+  <si>
+    <t>TOLTEN</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>CHI1240517-CHI8465573</t>
+  </si>
+  <si>
+    <t>MRSV05361700</t>
+  </si>
+  <si>
+    <t>EGSU9071104</t>
+  </si>
+  <si>
+    <t>9076905629-01</t>
+  </si>
+  <si>
+    <t>EISU9266856</t>
+  </si>
+  <si>
+    <t>9076905637-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432290</t>
+  </si>
+  <si>
+    <t>SEGU9269052</t>
+  </si>
+  <si>
+    <t>CHI1252669-CHI8547144</t>
+  </si>
+  <si>
+    <t>TY8NG8432900</t>
+  </si>
+  <si>
+    <t>FCLU9411901</t>
+  </si>
+  <si>
+    <t>CHI1247332-CHI8508219</t>
+  </si>
+  <si>
+    <t>VNAV03080400</t>
+  </si>
+  <si>
+    <t>CGMU5339330</t>
+  </si>
+  <si>
+    <t>00039</t>
+  </si>
+  <si>
+    <t>7062180976</t>
+  </si>
+  <si>
+    <t>CMDULPL0878867</t>
+  </si>
+  <si>
+    <t>OOLU2825271</t>
+  </si>
+  <si>
+    <t>CMA CGM T. ROOSEVELT</t>
+  </si>
+  <si>
+    <t>103E</t>
+  </si>
+  <si>
+    <t>7062176978</t>
+  </si>
+  <si>
+    <t>OOLU2619981780</t>
+  </si>
+  <si>
+    <t>OOLU8322232</t>
+  </si>
+  <si>
+    <t>BMOU4804143</t>
+  </si>
+  <si>
+    <t>DJPHLA4182315</t>
+  </si>
+  <si>
+    <t>7300384177</t>
+  </si>
+  <si>
+    <t>OOLU7669280</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>DJBWIA4147288</t>
+  </si>
+  <si>
+    <t>7140289563</t>
+  </si>
+  <si>
+    <t>OOLU2106769120</t>
+  </si>
+  <si>
+    <t>TCLU2958423</t>
+  </si>
+  <si>
+    <t>CHI1247085-CHI8510197</t>
+  </si>
+  <si>
+    <t>HAMV49186700</t>
+  </si>
+  <si>
+    <t>HLXU3488246</t>
+  </si>
+  <si>
+    <t>7300384313</t>
+  </si>
+  <si>
+    <t>HLCURTM190469914</t>
+  </si>
+  <si>
+    <t>UACU8149195</t>
+  </si>
+  <si>
+    <t>GCNU1193210</t>
+  </si>
+  <si>
+    <t>SA003822160101</t>
+  </si>
+  <si>
+    <t>BLB0719SA00382216</t>
+  </si>
+  <si>
+    <t>KKFU1870657</t>
+  </si>
+  <si>
+    <t>CHI1257116-CHI8573279</t>
+  </si>
+  <si>
+    <t>ANRV11729800</t>
+  </si>
+  <si>
+    <t>APHU7244875</t>
+  </si>
+  <si>
+    <t>005E</t>
+  </si>
+  <si>
+    <t>9076905535-01</t>
+  </si>
+  <si>
+    <t>CNKN522135</t>
+  </si>
+  <si>
+    <t>TCNU7478954</t>
+  </si>
+  <si>
+    <t>CMA CGM TOSCA</t>
+  </si>
+  <si>
+    <t>004W</t>
+  </si>
+  <si>
+    <t>9077905298-01</t>
+  </si>
+  <si>
+    <t>ONEYVLCV02902600</t>
+  </si>
+  <si>
+    <t>APZU4440440</t>
+  </si>
+  <si>
+    <t>SEATRADE BLUE</t>
+  </si>
+  <si>
+    <t>0RP4BS1MA</t>
+  </si>
+  <si>
+    <t>9077905780-01</t>
+  </si>
+  <si>
+    <t>CMDUBRE0459325</t>
+  </si>
+  <si>
+    <t>OOLU6878876</t>
+  </si>
+  <si>
+    <t>7062176354</t>
+  </si>
+  <si>
+    <t>OOLU2620062440</t>
+  </si>
+  <si>
+    <t>APZU4389883</t>
+  </si>
+  <si>
+    <t>DJPHLA4177683</t>
+  </si>
+  <si>
+    <t>7300384180</t>
+  </si>
+  <si>
+    <t>TLLU4088486</t>
+  </si>
+  <si>
+    <t>9076905631-01</t>
+  </si>
+  <si>
+    <t>NYKU5111773</t>
+  </si>
+  <si>
+    <t>ZIM SHEKOU</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>CHI1250987-CHI8539080</t>
+  </si>
+  <si>
+    <t>GOAV19049900</t>
+  </si>
+  <si>
+    <t>DRYU9276862</t>
+  </si>
+  <si>
+    <t>9076905646-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432303</t>
+  </si>
+  <si>
+    <t>NYKU4706226</t>
+  </si>
+  <si>
+    <t>CHI1243394-CHI8465574</t>
+  </si>
+  <si>
+    <t>HAMV30295500</t>
+  </si>
+  <si>
+    <t>NYKU3799923</t>
+  </si>
+  <si>
+    <t>00240</t>
+  </si>
+  <si>
+    <t>DJPHLA4168259</t>
+  </si>
+  <si>
+    <t>7300384542</t>
+  </si>
+  <si>
+    <t>ONEYHAMV39224600</t>
+  </si>
+  <si>
+    <t>CMAU8155507</t>
+  </si>
+  <si>
+    <t>DJBUFA4168441</t>
+  </si>
+  <si>
+    <t>7920148629</t>
+  </si>
+  <si>
+    <t>CMDUFRA0342284</t>
+  </si>
+  <si>
+    <t>EITU0369311</t>
+  </si>
+  <si>
+    <t>9077905239-01</t>
+  </si>
+  <si>
+    <t>KKFU1801527</t>
+  </si>
+  <si>
+    <t>CHI1252652-CHI8547146</t>
+  </si>
+  <si>
+    <t>LEHV13953500</t>
+  </si>
+  <si>
+    <t>ECMU4363450</t>
+  </si>
+  <si>
+    <t>9077905779-01</t>
+  </si>
+  <si>
+    <t>TCKU4626230</t>
+  </si>
+  <si>
     <t>0155</t>
   </si>
   <si>
-    <t>CHI1230989-CHI8396151</t>
-  </si>
-  <si>
-    <t>GOTV03509400</t>
-  </si>
-  <si>
-    <t>OOLU4215982</t>
-  </si>
-  <si>
-    <t>COSCO VIETNAM</t>
-  </si>
-  <si>
-    <t>050W</t>
-  </si>
-  <si>
-    <t>9076905020-01</t>
-  </si>
-  <si>
-    <t>OOLU2106097520</t>
-  </si>
-  <si>
-    <t>CCLU4862197</t>
-  </si>
-  <si>
-    <t>COSCO EXCELLENCE</t>
-  </si>
-  <si>
-    <t>00047</t>
-  </si>
-  <si>
-    <t>DJJFKA4144430</t>
-  </si>
-  <si>
-    <t>7062177652</t>
-  </si>
-  <si>
-    <t>COSU6202943940</t>
-  </si>
-  <si>
-    <t>GCNU4769721</t>
-  </si>
-  <si>
-    <t>BLB0719</t>
-  </si>
-  <si>
-    <t>SA003855280101</t>
-  </si>
-  <si>
-    <t>BLB0719SA00385528</t>
-  </si>
-  <si>
-    <t>SKYU3064721</t>
-  </si>
-  <si>
-    <t>DJPHLA4130244</t>
-  </si>
-  <si>
-    <t>7300382403</t>
-  </si>
-  <si>
-    <t>COSU6211409830</t>
-  </si>
-  <si>
-    <t>OOLU9534386</t>
-  </si>
-  <si>
-    <t>9076905019-01</t>
-  </si>
-  <si>
-    <t>OOCU7043026</t>
-  </si>
-  <si>
-    <t>9076905018-01</t>
-  </si>
-  <si>
-    <t>FDCU0354447</t>
-  </si>
-  <si>
-    <t>ZIM MONACO</t>
-  </si>
-  <si>
-    <t>0067</t>
-  </si>
-  <si>
-    <t>CHI1231141-CHI8397436</t>
-  </si>
-  <si>
-    <t>GOAV18181500</t>
-  </si>
-  <si>
-    <t>CBHU8259319</t>
-  </si>
-  <si>
-    <t>EVER LAMBENT</t>
-  </si>
-  <si>
-    <t>00897</t>
-  </si>
-  <si>
-    <t>7300380824</t>
-  </si>
-  <si>
-    <t>COSU6134263920</t>
-  </si>
-  <si>
-    <t>CCLU7636233</t>
-  </si>
-  <si>
-    <t>BMOU5597518</t>
-  </si>
-  <si>
-    <t>FSCU8584445</t>
-  </si>
-  <si>
-    <t>CBHU8155103</t>
-  </si>
-  <si>
-    <t>CCLU7955523</t>
-  </si>
-  <si>
-    <t>CBHU9526240</t>
-  </si>
-  <si>
-    <t>MAGU5201717</t>
-  </si>
-  <si>
-    <t>CCLU7218167</t>
-  </si>
-  <si>
-    <t>DFSU6851608</t>
-  </si>
-  <si>
-    <t>CCLU7756373</t>
-  </si>
-  <si>
-    <t>CCLU7657067</t>
-  </si>
-  <si>
-    <t>ACLU9749998</t>
-  </si>
-  <si>
-    <t>SA003725450101</t>
-  </si>
-  <si>
-    <t>BLB0719SA00372545</t>
-  </si>
-  <si>
-    <t>GESU4874061</t>
-  </si>
-  <si>
-    <t>00371</t>
-  </si>
-  <si>
-    <t>7300384175</t>
-  </si>
-  <si>
-    <t>APLUAKV0108499</t>
-  </si>
-  <si>
-    <t>BEAU4089694</t>
-  </si>
-  <si>
-    <t>BMOU5249575</t>
-  </si>
-  <si>
-    <t>CSNU1009152</t>
-  </si>
-  <si>
-    <t>COSCO SHIPPING PEONY</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>DJBOSA4161324</t>
-  </si>
-  <si>
-    <t>7120853547</t>
-  </si>
-  <si>
-    <t>6205023853</t>
-  </si>
-  <si>
-    <t>TCNU6659310</t>
-  </si>
-  <si>
-    <t>CMA CGM J. MADISON</t>
-  </si>
-  <si>
-    <t>0MB2TE1MA</t>
-  </si>
-  <si>
-    <t>9076905648-01</t>
-  </si>
-  <si>
-    <t>EGLV143999432281</t>
-  </si>
-  <si>
-    <t>UACU8449464</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>DJPHLA4168197</t>
-  </si>
-  <si>
-    <t>7300384530</t>
-  </si>
-  <si>
-    <t>HLCUVIE190411943</t>
-  </si>
-  <si>
-    <t>YMMU6252814</t>
-  </si>
-  <si>
-    <t>AL2918W</t>
-  </si>
-  <si>
-    <t>9076905851-01</t>
-  </si>
-  <si>
-    <t>T936034069</t>
-  </si>
-  <si>
-    <t>HLBU1326228</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>DJJFKA4167031</t>
-  </si>
-  <si>
-    <t>7062173628</t>
-  </si>
-  <si>
-    <t>IZ1190444688</t>
-  </si>
-  <si>
-    <t>TCLU6456892</t>
-  </si>
-  <si>
-    <t>9076905630-01</t>
-  </si>
-  <si>
-    <t>EGLV143999432265</t>
-  </si>
-  <si>
-    <t>SEGU5890164</t>
-  </si>
-  <si>
-    <t>9076905647-01</t>
-  </si>
-  <si>
-    <t>EITU0025532</t>
-  </si>
-  <si>
-    <t>9077905237-01</t>
-  </si>
-  <si>
-    <t>EGLV567900007551</t>
-  </si>
-  <si>
-    <t>EISU1849353</t>
-  </si>
-  <si>
-    <t>9076905737-01</t>
-  </si>
-  <si>
-    <t>EGLV567900007497</t>
-  </si>
-  <si>
-    <t>TLLU4503416</t>
-  </si>
-  <si>
-    <t>7300381962</t>
-  </si>
-  <si>
-    <t>COSU6199380900</t>
-  </si>
-  <si>
-    <t>CSNU6903570</t>
-  </si>
-  <si>
-    <t>GCNU1307972</t>
-  </si>
-  <si>
-    <t>EMP2219</t>
-  </si>
-  <si>
-    <t>SA003851470101</t>
-  </si>
-  <si>
-    <t>EMP2219SA00385147</t>
-  </si>
-  <si>
-    <t>SEGU3215188</t>
-  </si>
-  <si>
-    <t>DJJFKA4148235</t>
-  </si>
-  <si>
-    <t>7062168460</t>
-  </si>
-  <si>
-    <t>COSU6198329690</t>
-  </si>
-  <si>
-    <t>FCIU7204670</t>
-  </si>
-  <si>
-    <t>OOCL ASIA</t>
-  </si>
-  <si>
-    <t>132W</t>
-  </si>
-  <si>
-    <t>7062179647</t>
-  </si>
-  <si>
-    <t>COSU4520641190</t>
-  </si>
-  <si>
-    <t>CSNU6922502</t>
-  </si>
-  <si>
-    <t>CSNU6020679</t>
-  </si>
-  <si>
-    <t>CAIU4508671</t>
-  </si>
-  <si>
-    <t>TCNU9616693</t>
-  </si>
-  <si>
-    <t>TLLU6088680</t>
-  </si>
-  <si>
-    <t>TOLTEN</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>CHI1240517-CHI8465573</t>
-  </si>
-  <si>
-    <t>MRSV05361700</t>
-  </si>
-  <si>
-    <t>EGSU9071104</t>
-  </si>
-  <si>
-    <t>9076905629-01</t>
-  </si>
-  <si>
-    <t>EISU9266856</t>
-  </si>
-  <si>
-    <t>9076905637-01</t>
-  </si>
-  <si>
-    <t>EGLV143999432290</t>
-  </si>
-  <si>
-    <t>SEGU9269052</t>
-  </si>
-  <si>
-    <t>CHI1252669-CHI8547144</t>
-  </si>
-  <si>
-    <t>TY8NG8432900</t>
-  </si>
-  <si>
-    <t>FCLU9411901</t>
-  </si>
-  <si>
-    <t>CHI1247332-CHI8508219</t>
-  </si>
-  <si>
-    <t>VNAV03080400</t>
-  </si>
-  <si>
-    <t>CGMU5339330</t>
-  </si>
-  <si>
-    <t>00039</t>
-  </si>
-  <si>
-    <t>7062180976</t>
-  </si>
-  <si>
-    <t>CMDULPL0878867</t>
-  </si>
-  <si>
-    <t>OOLU7669280</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>DJBWIA4147288</t>
-  </si>
-  <si>
-    <t>7140289563</t>
-  </si>
-  <si>
-    <t>OOLU2106769120</t>
-  </si>
-  <si>
-    <t>TCLU2958423</t>
-  </si>
-  <si>
-    <t>CHI1247085-CHI8510197</t>
-  </si>
-  <si>
-    <t>HAMV49186700</t>
-  </si>
-  <si>
-    <t>GCNU1193210</t>
-  </si>
-  <si>
-    <t>SA003822160101</t>
-  </si>
-  <si>
-    <t>BLB0719SA00382216</t>
-  </si>
-  <si>
-    <t>APHU7244875</t>
-  </si>
-  <si>
-    <t>005E</t>
-  </si>
-  <si>
-    <t>9076905535-01</t>
-  </si>
-  <si>
-    <t>CNKN522135</t>
-  </si>
-  <si>
-    <t>TCNU7478954</t>
-  </si>
-  <si>
-    <t>CMA CGM TOSCA</t>
-  </si>
-  <si>
-    <t>004W</t>
-  </si>
-  <si>
-    <t>9077905298-01</t>
-  </si>
-  <si>
-    <t>ONEYVLCV02902600</t>
-  </si>
-  <si>
-    <t>APZU4389883</t>
-  </si>
-  <si>
-    <t>DJPHLA4177683</t>
-  </si>
-  <si>
-    <t>7300384180</t>
-  </si>
-  <si>
-    <t>TLLU4088486</t>
-  </si>
-  <si>
-    <t>9076905631-01</t>
-  </si>
-  <si>
-    <t>NYKU5111773</t>
-  </si>
-  <si>
-    <t>ZIM SHEKOU</t>
-  </si>
-  <si>
-    <t>0054</t>
-  </si>
-  <si>
-    <t>CHI1250987-CHI8539080</t>
-  </si>
-  <si>
-    <t>GOAV19049900</t>
-  </si>
-  <si>
-    <t>DRYU9276862</t>
-  </si>
-  <si>
-    <t>9076905646-01</t>
-  </si>
-  <si>
-    <t>EGLV143999432303</t>
-  </si>
-  <si>
-    <t>NYKU4706226</t>
-  </si>
-  <si>
-    <t>CHI1243394-CHI8465574</t>
-  </si>
-  <si>
-    <t>HAMV30295500</t>
-  </si>
-  <si>
-    <t>NYKU3799923</t>
-  </si>
-  <si>
-    <t>00240</t>
-  </si>
-  <si>
-    <t>DJPHLA4168259</t>
-  </si>
-  <si>
-    <t>7300384542</t>
-  </si>
-  <si>
-    <t>ONEYHAMV39224600</t>
-  </si>
-  <si>
-    <t>CMAU8155507</t>
-  </si>
-  <si>
-    <t>DJBUFA4168441</t>
-  </si>
-  <si>
-    <t>7920148629</t>
-  </si>
-  <si>
-    <t>CMDUFRA0342284</t>
-  </si>
-  <si>
-    <t>EITU0369311</t>
-  </si>
-  <si>
-    <t>9077905239-01</t>
-  </si>
-  <si>
-    <t>KKFU1801527</t>
-  </si>
-  <si>
-    <t>CHI1252652-CHI8547146</t>
-  </si>
-  <si>
-    <t>LEHV13953500</t>
-  </si>
-  <si>
-    <t>SEGU9538742</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>7062180624</t>
-  </si>
-  <si>
-    <t>CMDULPL0878866</t>
-  </si>
-  <si>
-    <t>TCKU4626230</t>
-  </si>
-  <si>
     <t>CHI1252179-CHI8516476</t>
   </si>
   <si>
     <t>LEHV13951300</t>
   </si>
   <si>
+    <t>OOLU0288996</t>
+  </si>
+  <si>
+    <t>7062175461</t>
+  </si>
+  <si>
+    <t>OOLU2620277780</t>
+  </si>
+  <si>
     <t>CMAU7131882</t>
   </si>
   <si>
@@ -650,12 +782,6 @@
     <t>7300384179</t>
   </si>
   <si>
-    <t>TGHU4936187</t>
-  </si>
-  <si>
-    <t>OLB3</t>
-  </si>
-  <si>
     <t>7250578652</t>
   </si>
   <si>
@@ -665,9 +791,6 @@
     <t>OOLU0267611</t>
   </si>
   <si>
-    <t>OOCL BERLIN</t>
-  </si>
-  <si>
     <t>027E</t>
   </si>
   <si>
@@ -701,16 +824,16 @@
     <t>HJMU4988648</t>
   </si>
   <si>
-    <t>BMOU5221198</t>
-  </si>
-  <si>
-    <t>0MR2PW1MA</t>
-  </si>
-  <si>
-    <t>9077905069-01</t>
-  </si>
-  <si>
-    <t>COSU4520822660.</t>
+    <t>OOLU1586655</t>
+  </si>
+  <si>
+    <t>DJPHLA4186122</t>
+  </si>
+  <si>
+    <t>7300382784</t>
+  </si>
+  <si>
+    <t>COSU6199381010</t>
   </si>
   <si>
     <t>EITU1900593</t>
@@ -782,9 +905,6 @@
     <t>CSLU1009140</t>
   </si>
   <si>
-    <t>00027</t>
-  </si>
-  <si>
     <t>7062176352</t>
   </si>
   <si>
@@ -803,6 +923,12 @@
     <t>COSU6211316750</t>
   </si>
   <si>
+    <t>CMAU8258465</t>
+  </si>
+  <si>
+    <t>9077905778-01</t>
+  </si>
+  <si>
     <t>CMAU1833644</t>
   </si>
   <si>
@@ -947,6 +1073,21 @@
     <t>OOLU4341189</t>
   </si>
   <si>
+    <t>BAFU8611177</t>
+  </si>
+  <si>
+    <t>67W</t>
+  </si>
+  <si>
+    <t>7250578816</t>
+  </si>
+  <si>
+    <t>HLCULIV190503972</t>
+  </si>
+  <si>
+    <t>BAFU8813141</t>
+  </si>
+  <si>
     <t>OOCU7994302</t>
   </si>
   <si>
@@ -1007,27 +1148,9 @@
     <t>HAMV46469800</t>
   </si>
   <si>
-    <t>CMAU8191103</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>DJPHLA4152433</t>
-  </si>
-  <si>
-    <t>7300384509</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348046</t>
-  </si>
-  <si>
     <t>TLLU4903942</t>
   </si>
   <si>
-    <t>00021</t>
-  </si>
-  <si>
     <t>DJBWIA4154140</t>
   </si>
   <si>
@@ -1046,6 +1169,15 @@
     <t>BLB0719SA00381041</t>
   </si>
   <si>
+    <t>MOFU5833680</t>
+  </si>
+  <si>
+    <t>CHI1257115-CHI8573278</t>
+  </si>
+  <si>
+    <t>ANRV11730700</t>
+  </si>
+  <si>
     <t>OOLU6503205</t>
   </si>
   <si>
@@ -1161,18 +1293,6 @@
   </si>
   <si>
     <t>9076905850-01</t>
-  </si>
-  <si>
-    <t>EMCU3736097</t>
-  </si>
-  <si>
-    <t>9076905932-01</t>
-  </si>
-  <si>
-    <t>EGLV560900177875</t>
-  </si>
-  <si>
-    <t>CMAU9012563</t>
   </si>
   <si>
     <t>7250578651</t>
@@ -1307,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1422,27 +1542,27 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
         <v>31</v>
       </c>
+      <c r="E7"/>
       <c r="F7" t="s">
         <v>32</v>
       </c>
@@ -1455,380 +1575,382 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11"/>
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25"/>
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
         <v>70</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
@@ -1839,1438 +1961,1438 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32"/>
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36"/>
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37"/>
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E38"/>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40"/>
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>126</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47"/>
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48"/>
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49"/>
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50"/>
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
         <v>145</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="B53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>153</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53"/>
+      <c r="F53" t="s">
         <v>154</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59"/>
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60"/>
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61"/>
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62"/>
+        <v>181</v>
+      </c>
+      <c r="E62" t="s">
+        <v>182</v>
+      </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" t="s">
-        <v>191</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65"/>
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>188</v>
+      </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" t="s">
-        <v>204</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E67"/>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" t="s">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" t="s">
-        <v>214</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E70"/>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
         <v>218</v>
       </c>
-      <c r="D73" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" t="s">
-        <v>223</v>
-      </c>
+      <c r="E73"/>
       <c r="F73" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" t="s">
-        <v>226</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E74"/>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
         <v>226</v>
-      </c>
-      <c r="E75" t="s">
-        <v>226</v>
-      </c>
-      <c r="F75" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
         <v>228</v>
       </c>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" t="s">
-        <v>226</v>
-      </c>
+      <c r="E76"/>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77"/>
+        <v>232</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78"/>
+        <v>236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" t="s">
-        <v>240</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E80"/>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" t="s">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E81"/>
       <c r="F81" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84"/>
+        <v>254</v>
+      </c>
+      <c r="E84" t="s">
+        <v>255</v>
+      </c>
       <c r="F84" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" t="s">
         <v>256</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" t="s">
         <v>257</v>
-      </c>
-      <c r="E85" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
         <v>259</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>239</v>
       </c>
       <c r="D86" t="s">
         <v>260</v>
       </c>
       <c r="E86" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" t="s">
         <v>261</v>
-      </c>
-      <c r="F86" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
-      </c>
-      <c r="E88"/>
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
       <c r="F88" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
-      </c>
-      <c r="E89"/>
+        <v>267</v>
+      </c>
+      <c r="E89" t="s">
+        <v>267</v>
+      </c>
       <c r="F89" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
-      </c>
-      <c r="E91"/>
+        <v>267</v>
+      </c>
+      <c r="E91" t="s">
+        <v>267</v>
+      </c>
       <c r="F91" t="s">
-        <v>276</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F92" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
-      </c>
-      <c r="E94" t="s">
-        <v>285</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E94"/>
       <c r="F94" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E95" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F95" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
-      </c>
-      <c r="E97" t="s">
-        <v>294</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E97"/>
       <c r="F97" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F98" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>300</v>
-      </c>
-      <c r="E99" t="s">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E99"/>
       <c r="F99" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D101" t="s">
         <v>300</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
         <v>304</v>
       </c>
-      <c r="B102" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" t="s">
-        <v>300</v>
-      </c>
+      <c r="E102"/>
       <c r="F102" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103">
@@ -3278,801 +3400,1133 @@
         <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E103" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
-      </c>
-      <c r="E104" t="s">
-        <v>300</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E104"/>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
-      </c>
-      <c r="E105" t="s">
-        <v>300</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E106" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="F106" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" t="s">
-        <v>300</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E107"/>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
-      </c>
-      <c r="E109" t="s">
-        <v>312</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E109"/>
       <c r="F109" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E110" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F110" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="D112" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E112" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F112" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="D113" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="E113" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F113" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E114" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F114" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="D115" t="s">
-        <v>329</v>
-      </c>
-      <c r="E115"/>
+        <v>342</v>
+      </c>
+      <c r="E115" t="s">
+        <v>342</v>
+      </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D116" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E116" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F116" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E117" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F117" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
         <v>342</v>
       </c>
-      <c r="E118"/>
+      <c r="E118" t="s">
+        <v>342</v>
+      </c>
       <c r="F118" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D119" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E119" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F119" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E120" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="D121" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E121" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F121" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="D122" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E122" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F122" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="D123" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E123" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="F123" t="s">
-        <v>196</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="D124" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E124" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>365</v>
-      </c>
-      <c r="E125"/>
+        <v>355</v>
+      </c>
+      <c r="E125" t="s">
+        <v>355</v>
+      </c>
       <c r="F125" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
-      </c>
-      <c r="E126"/>
+        <v>355</v>
+      </c>
+      <c r="E126" t="s">
+        <v>355</v>
+      </c>
       <c r="F126" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="D127" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="E127" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F127" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="D128" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E128" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="F128" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
-      </c>
-      <c r="E129"/>
+        <v>365</v>
+      </c>
+      <c r="E129" t="s">
+        <v>365</v>
+      </c>
       <c r="F129" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="C130" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="D130" t="s">
-        <v>382</v>
-      </c>
-      <c r="E130"/>
+        <v>365</v>
+      </c>
+      <c r="E130" t="s">
+        <v>365</v>
+      </c>
       <c r="F130" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>363</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>364</v>
       </c>
       <c r="D131" t="s">
-        <v>384</v>
-      </c>
-      <c r="E131"/>
+        <v>365</v>
+      </c>
+      <c r="E131" t="s">
+        <v>365</v>
+      </c>
       <c r="F131" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>370</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>371</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E132" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F132" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>390</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>391</v>
-      </c>
-      <c r="E133" t="s">
-        <v>392</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E133"/>
       <c r="F133" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C134" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
-      </c>
-      <c r="E134"/>
+        <v>379</v>
+      </c>
+      <c r="E134" t="s">
+        <v>380</v>
+      </c>
       <c r="F134" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D135" t="s">
-        <v>398</v>
-      </c>
-      <c r="E135" t="s">
-        <v>98</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E135"/>
       <c r="F135" t="s">
-        <v>99</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>400</v>
-      </c>
-      <c r="E136" t="s">
-        <v>400</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E136"/>
       <c r="F136" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="D137" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E137" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F137" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E138" t="s">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="F138" t="s">
-        <v>401</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F139" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D140" t="s">
         <v>400</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>406</v>
+        <v>235</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D141" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E141" t="s">
-        <v>408</v>
+        <v>237</v>
       </c>
       <c r="F141" t="s">
-        <v>409</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
-        <v>411</v>
+        <v>280</v>
       </c>
       <c r="D142" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E142" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F142" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D143" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E143"/>
       <c r="F143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" t="s">
+        <v>412</v>
+      </c>
+      <c r="D144" t="s">
+        <v>413</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" t="s">
         <v>416</v>
+      </c>
+      <c r="E145" t="s">
+        <v>416</v>
+      </c>
+      <c r="F145" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
+        <v>420</v>
+      </c>
+      <c r="F146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>422</v>
+      </c>
+      <c r="D147" t="s">
+        <v>423</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>425</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" t="s">
+        <v>427</v>
+      </c>
+      <c r="E149" t="s">
+        <v>427</v>
+      </c>
+      <c r="F149" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>429</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>430</v>
+      </c>
+      <c r="D150" t="s">
+        <v>431</v>
+      </c>
+      <c r="E150" t="s">
+        <v>432</v>
+      </c>
+      <c r="F150" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>434</v>
+      </c>
+      <c r="B151" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" t="s">
+        <v>75</v>
+      </c>
+      <c r="D151" t="s">
+        <v>435</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>437</v>
+      </c>
+      <c r="B152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" t="s">
+        <v>99</v>
+      </c>
+      <c r="D152" t="s">
+        <v>438</v>
+      </c>
+      <c r="E152" t="s">
+        <v>101</v>
+      </c>
+      <c r="F152" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" t="s">
+        <v>440</v>
+      </c>
+      <c r="E153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F153" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>442</v>
+      </c>
+      <c r="B154" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" t="s">
+        <v>440</v>
+      </c>
+      <c r="E154" t="s">
+        <v>440</v>
+      </c>
+      <c r="F154" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>443</v>
+      </c>
+      <c r="B155" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>440</v>
+      </c>
+      <c r="E155" t="s">
+        <v>440</v>
+      </c>
+      <c r="F155" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B156" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" t="s">
+        <v>440</v>
+      </c>
+      <c r="E156" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>445</v>
+      </c>
+      <c r="B157" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" t="s">
+        <v>440</v>
+      </c>
+      <c r="E157" t="s">
+        <v>440</v>
+      </c>
+      <c r="F157" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>446</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" t="s">
+        <v>448</v>
+      </c>
+      <c r="F158" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>451</v>
+      </c>
+      <c r="D159" t="s">
+        <v>452</v>
+      </c>
+      <c r="E159" t="s">
+        <v>452</v>
+      </c>
+      <c r="F159" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>454</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>455</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Maher/Test.xlsx
+++ b/Maher/Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="400">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -39,6 +39,24 @@
     <t>BOLNumber</t>
   </si>
   <si>
+    <t>CPSU1707243</t>
+  </si>
+  <si>
+    <t>BREVIK BRIDGE</t>
+  </si>
+  <si>
+    <t>00059</t>
+  </si>
+  <si>
+    <t>DJPHLA4209221</t>
+  </si>
+  <si>
+    <t>7300385342</t>
+  </si>
+  <si>
+    <t>HLCUVIE190503304</t>
+  </si>
+  <si>
     <t>TCNU9871868</t>
   </si>
   <si>
@@ -90,24 +108,6 @@
     <t>COSU6212300240</t>
   </si>
   <si>
-    <t>CPSU1707243</t>
-  </si>
-  <si>
-    <t>BREVIK BRIDGE</t>
-  </si>
-  <si>
-    <t>00059</t>
-  </si>
-  <si>
-    <t>DJPHLA4209221</t>
-  </si>
-  <si>
-    <t>7300385342</t>
-  </si>
-  <si>
-    <t>HLCUVIE190503304</t>
-  </si>
-  <si>
     <t>CCLU4695762</t>
   </si>
   <si>
@@ -136,6 +136,1089 @@
   </si>
   <si>
     <t>HLCUIZ1190485971</t>
+  </si>
+  <si>
+    <t>CSLU6237760</t>
+  </si>
+  <si>
+    <t>APL CHARLESTON</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>DJPHLA4209207</t>
+  </si>
+  <si>
+    <t>7300382973</t>
+  </si>
+  <si>
+    <t>COSU6212300440</t>
+  </si>
+  <si>
+    <t>TCLU8867439</t>
+  </si>
+  <si>
+    <t>9071906439-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432451</t>
+  </si>
+  <si>
+    <t>OOCU6917810</t>
+  </si>
+  <si>
+    <t>OOCL ASIA</t>
+  </si>
+  <si>
+    <t>132W</t>
+  </si>
+  <si>
+    <t>9077905573-01</t>
+  </si>
+  <si>
+    <t>2106836630</t>
+  </si>
+  <si>
+    <t>TEMU2501882</t>
+  </si>
+  <si>
+    <t>MOL EMPIRE</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>CHI1264414-CHI8625453</t>
+  </si>
+  <si>
+    <t>LEHV09197300</t>
+  </si>
+  <si>
+    <t>CSNU1033565</t>
+  </si>
+  <si>
+    <t>OOCL BERLIN</t>
+  </si>
+  <si>
+    <t>00027</t>
+  </si>
+  <si>
+    <t>DJJFKA4183028</t>
+  </si>
+  <si>
+    <t>7062176299</t>
+  </si>
+  <si>
+    <t>COSU6205079920</t>
+  </si>
+  <si>
+    <t>DRYU9493723</t>
+  </si>
+  <si>
+    <t>9071906424-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432443</t>
+  </si>
+  <si>
+    <t>EMCU9705853</t>
+  </si>
+  <si>
+    <t>9071906425-01</t>
+  </si>
+  <si>
+    <t>CSNU6203140</t>
+  </si>
+  <si>
+    <t>CMA CGM J. MADISON</t>
+  </si>
+  <si>
+    <t>00021</t>
+  </si>
+  <si>
+    <t>7300382804</t>
+  </si>
+  <si>
+    <t>COSU6199381030</t>
+  </si>
+  <si>
+    <t>FSCU9345189</t>
+  </si>
+  <si>
+    <t>CBHU9513670</t>
+  </si>
+  <si>
+    <t>FSCU8766769</t>
+  </si>
+  <si>
+    <t>CCLU7902586</t>
+  </si>
+  <si>
+    <t>FSCU8781038</t>
+  </si>
+  <si>
+    <t>OOCU6538735</t>
+  </si>
+  <si>
+    <t>COSCO VIETNAM</t>
+  </si>
+  <si>
+    <t>050W</t>
+  </si>
+  <si>
+    <t>7300384709</t>
+  </si>
+  <si>
+    <t>OOLU2106750420</t>
+  </si>
+  <si>
+    <t>TLLU5481266</t>
+  </si>
+  <si>
+    <t>059W</t>
+  </si>
+  <si>
+    <t>9071906532-01</t>
+  </si>
+  <si>
+    <t>ONEYBUDV00461800</t>
+  </si>
+  <si>
+    <t>TCKU6561571</t>
+  </si>
+  <si>
+    <t>DJJFKA4200696</t>
+  </si>
+  <si>
+    <t>7062177031</t>
+  </si>
+  <si>
+    <t>MER1940289</t>
+  </si>
+  <si>
+    <t>NYKU2956463</t>
+  </si>
+  <si>
+    <t>MOL EMISSARY</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>CHI1273768-CHI8702164</t>
+  </si>
+  <si>
+    <t>GOTV04968700</t>
+  </si>
+  <si>
+    <t>INBU5450490</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>CHI1260089-CHI8592752</t>
+  </si>
+  <si>
+    <t>VNAV03253600</t>
+  </si>
+  <si>
+    <t>CSLU2004179</t>
+  </si>
+  <si>
+    <t>DJPHLA4191648</t>
+  </si>
+  <si>
+    <t>7300383415</t>
+  </si>
+  <si>
+    <t>COSU6205116782</t>
+  </si>
+  <si>
+    <t>TCNU2423270</t>
+  </si>
+  <si>
+    <t>SEATRADE BLUE</t>
+  </si>
+  <si>
+    <t>0RP4V</t>
+  </si>
+  <si>
+    <t>7250579290</t>
+  </si>
+  <si>
+    <t>CMDUBRE0458161</t>
+  </si>
+  <si>
+    <t>MAGU2299908</t>
+  </si>
+  <si>
+    <t>MB2TE</t>
+  </si>
+  <si>
+    <t>7062171834</t>
+  </si>
+  <si>
+    <t>COSU6063186710</t>
+  </si>
+  <si>
+    <t>TCNU1653896</t>
+  </si>
+  <si>
+    <t>00041</t>
+  </si>
+  <si>
+    <t>DJJFKA4219319</t>
+  </si>
+  <si>
+    <t>7062185571</t>
+  </si>
+  <si>
+    <t>APLUHLD0109434</t>
+  </si>
+  <si>
+    <t>KKFU8102157</t>
+  </si>
+  <si>
+    <t>ZIM QINGDAO</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>CHI1274060-CHI8702159</t>
+  </si>
+  <si>
+    <t>GOAV19392300</t>
+  </si>
+  <si>
+    <t>OOLU8589229</t>
+  </si>
+  <si>
+    <t>DJPHLA4209204</t>
+  </si>
+  <si>
+    <t>7300384027</t>
+  </si>
+  <si>
+    <t>OOLU4102518180</t>
+  </si>
+  <si>
+    <t>DRYU4132292</t>
+  </si>
+  <si>
+    <t>CHI1273862-CHI8702161</t>
+  </si>
+  <si>
+    <t>HAMV46872600</t>
+  </si>
+  <si>
+    <t>TCLU3276578</t>
+  </si>
+  <si>
+    <t>CHI1273864-CHI8702162</t>
+  </si>
+  <si>
+    <t>HAMV49064900</t>
+  </si>
+  <si>
+    <t>BEAU4698134</t>
+  </si>
+  <si>
+    <t>7300382794</t>
+  </si>
+  <si>
+    <t>COSU6199381020</t>
+  </si>
+  <si>
+    <t>TGHU6232720</t>
+  </si>
+  <si>
+    <t>TCLU9728470</t>
+  </si>
+  <si>
+    <t>CHI1274060-CHI8702160</t>
+  </si>
+  <si>
+    <t>BMOU4482561</t>
+  </si>
+  <si>
+    <t>9071906428-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432435</t>
+  </si>
+  <si>
+    <t>FCIU5836694</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>7062168302</t>
+  </si>
+  <si>
+    <t>COSU6202612940</t>
+  </si>
+  <si>
+    <t>CSLU1414158</t>
+  </si>
+  <si>
+    <t>TEMU7335608</t>
+  </si>
+  <si>
+    <t>9071906429-01</t>
+  </si>
+  <si>
+    <t>FCIU8044622</t>
+  </si>
+  <si>
+    <t>DJJFKA4219313</t>
+  </si>
+  <si>
+    <t>UACU8178676</t>
+  </si>
+  <si>
+    <t>DJBOSA4207163</t>
+  </si>
+  <si>
+    <t>7120861395</t>
+  </si>
+  <si>
+    <t>EUR190419595</t>
+  </si>
+  <si>
+    <t>GCNU1307972</t>
+  </si>
+  <si>
+    <t>EMP2219</t>
+  </si>
+  <si>
+    <t>SA003851470101</t>
+  </si>
+  <si>
+    <t>EMP2219SA00385147</t>
+  </si>
+  <si>
+    <t>CCLU7306000</t>
+  </si>
+  <si>
+    <t>DJPHLA4205942</t>
+  </si>
+  <si>
+    <t>7300383458</t>
+  </si>
+  <si>
+    <t>COSU6204653870</t>
+  </si>
+  <si>
+    <t>CAIU3660118</t>
+  </si>
+  <si>
+    <t>DJJFKA4192330</t>
+  </si>
+  <si>
+    <t>7062171947</t>
+  </si>
+  <si>
+    <t>COSU6202624350</t>
+  </si>
+  <si>
+    <t>ZCSU8483733</t>
+  </si>
+  <si>
+    <t>DJBWIA4197135</t>
+  </si>
+  <si>
+    <t>7140290399</t>
+  </si>
+  <si>
+    <t>ZIMUBCN0119371</t>
+  </si>
+  <si>
+    <t>EITU1575600</t>
+  </si>
+  <si>
+    <t>9078905134-01</t>
+  </si>
+  <si>
+    <t>EGLV560900186785</t>
+  </si>
+  <si>
+    <t>TEMU7728565</t>
+  </si>
+  <si>
+    <t>DJPHLA4199399</t>
+  </si>
+  <si>
+    <t>7300383853</t>
+  </si>
+  <si>
+    <t>COSU6212300560</t>
+  </si>
+  <si>
+    <t>FCIU9878785</t>
+  </si>
+  <si>
+    <t>7300383456</t>
+  </si>
+  <si>
+    <t>COSU6199381320</t>
+  </si>
+  <si>
+    <t>CBHU8542587</t>
+  </si>
+  <si>
+    <t>TEMU7358033</t>
+  </si>
+  <si>
+    <t>OOLU8907079</t>
+  </si>
+  <si>
+    <t>BSIU2636956</t>
+  </si>
+  <si>
+    <t>TRHU3013783</t>
+  </si>
+  <si>
+    <t>9071906531-01</t>
+  </si>
+  <si>
+    <t>TLLU5345568</t>
+  </si>
+  <si>
+    <t>7062169605</t>
+  </si>
+  <si>
+    <t>EGLV147900161496</t>
+  </si>
+  <si>
+    <t>IMTU9071296</t>
+  </si>
+  <si>
+    <t>HLBU9189121</t>
+  </si>
+  <si>
+    <t>00590</t>
+  </si>
+  <si>
+    <t>7300385497</t>
+  </si>
+  <si>
+    <t>HLCUMUC190406133</t>
+  </si>
+  <si>
+    <t>CXDU1085180</t>
+  </si>
+  <si>
+    <t>9071906860-01</t>
+  </si>
+  <si>
+    <t>COSU6211530890</t>
+  </si>
+  <si>
+    <t>OOLU2825271</t>
+  </si>
+  <si>
+    <t>103E</t>
+  </si>
+  <si>
+    <t>7062176978</t>
+  </si>
+  <si>
+    <t>OOLU2619981780</t>
+  </si>
+  <si>
+    <t>OOLU8322232</t>
+  </si>
+  <si>
+    <t>CCLU4740809</t>
+  </si>
+  <si>
+    <t>9071906733-01</t>
+  </si>
+  <si>
+    <t>COSU6211528730</t>
+  </si>
+  <si>
+    <t>TCLU2972904</t>
+  </si>
+  <si>
+    <t>CHI1264718-CHI8627505</t>
+  </si>
+  <si>
+    <t>GOTV03655600</t>
+  </si>
+  <si>
+    <t>HLBU1789834</t>
+  </si>
+  <si>
+    <t>OOCL EUROPE</t>
+  </si>
+  <si>
+    <t>00161</t>
+  </si>
+  <si>
+    <t>7140290464</t>
+  </si>
+  <si>
+    <t>HLCULE1190433804</t>
+  </si>
+  <si>
+    <t>APZU4440440</t>
+  </si>
+  <si>
+    <t>0RP4BS1MA</t>
+  </si>
+  <si>
+    <t>9077905780-01</t>
+  </si>
+  <si>
+    <t>CMDUBRE0459325</t>
+  </si>
+  <si>
+    <t>UETU4035521</t>
+  </si>
+  <si>
+    <t>9071906776-01</t>
+  </si>
+  <si>
+    <t>ONEYLIVV32108500</t>
+  </si>
+  <si>
+    <t>NYKU3473304</t>
+  </si>
+  <si>
+    <t>CHI1266981-CHI8646685</t>
+  </si>
+  <si>
+    <t>GOTV04966500</t>
+  </si>
+  <si>
+    <t>OOLU6878876</t>
+  </si>
+  <si>
+    <t>7062176354</t>
+  </si>
+  <si>
+    <t>OOLU2620062440</t>
+  </si>
+  <si>
+    <t>APZU4389883</t>
+  </si>
+  <si>
+    <t>00371</t>
+  </si>
+  <si>
+    <t>DJPHLA4177683</t>
+  </si>
+  <si>
+    <t>7300384180</t>
+  </si>
+  <si>
+    <t>APLUAKV0108499</t>
+  </si>
+  <si>
+    <t>TCLU4789528</t>
+  </si>
+  <si>
+    <t>00301</t>
+  </si>
+  <si>
+    <t>DJPHLA4197021</t>
+  </si>
+  <si>
+    <t>7300382990</t>
+  </si>
+  <si>
+    <t>APLUAFZ0139654</t>
+  </si>
+  <si>
+    <t>EITU0582311</t>
+  </si>
+  <si>
+    <t>9078905131-01</t>
+  </si>
+  <si>
+    <t>EGLV567900007799</t>
+  </si>
+  <si>
+    <t>NYKU5111773</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>CHI1250987-CHI8539080</t>
+  </si>
+  <si>
+    <t>GOAV19049900</t>
+  </si>
+  <si>
+    <t>GVCU5207981</t>
+  </si>
+  <si>
+    <t>DJJFKA4191034</t>
+  </si>
+  <si>
+    <t>7062176163</t>
+  </si>
+  <si>
+    <t>COSU6202944090</t>
+  </si>
+  <si>
+    <t>TGBU6935697</t>
+  </si>
+  <si>
+    <t>9071906435-01</t>
+  </si>
+  <si>
+    <t>EGLV143999432583</t>
+  </si>
+  <si>
+    <t>EGSU9062484</t>
+  </si>
+  <si>
+    <t>9071906438-01</t>
+  </si>
+  <si>
+    <t>KKFU1801527</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>CHI1252652-CHI8547146</t>
+  </si>
+  <si>
+    <t>LEHV13953500</t>
+  </si>
+  <si>
+    <t>ECMU4363450</t>
+  </si>
+  <si>
+    <t>9077905779-01</t>
+  </si>
+  <si>
+    <t>OOLU0288996</t>
+  </si>
+  <si>
+    <t>7062175461</t>
+  </si>
+  <si>
+    <t>OOLU2620277780</t>
+  </si>
+  <si>
+    <t>CCLU4698904</t>
+  </si>
+  <si>
+    <t>DJJFKA4191411</t>
+  </si>
+  <si>
+    <t>7062178945</t>
+  </si>
+  <si>
+    <t>COSU6211570730</t>
+  </si>
+  <si>
+    <t>CCLU7656060</t>
+  </si>
+  <si>
+    <t>COSCO SHIPPING PEONY</t>
+  </si>
+  <si>
+    <t>7062174110</t>
+  </si>
+  <si>
+    <t>COSU6211435620</t>
+  </si>
+  <si>
+    <t>TGBU2060112</t>
+  </si>
+  <si>
+    <t>7160209507</t>
+  </si>
+  <si>
+    <t>COSU6207338790</t>
+  </si>
+  <si>
+    <t>BMOU5038335</t>
+  </si>
+  <si>
+    <t>DJPHLA4206957</t>
+  </si>
+  <si>
+    <t>7300383352</t>
+  </si>
+  <si>
+    <t>COSU6204661560</t>
+  </si>
+  <si>
+    <t>OOLU9115374</t>
+  </si>
+  <si>
+    <t>DJPHLA4206510</t>
+  </si>
+  <si>
+    <t>7300384026</t>
+  </si>
+  <si>
+    <t>TCNU6491972</t>
+  </si>
+  <si>
+    <t>CHI1264210-CHI8624093</t>
+  </si>
+  <si>
+    <t>LIVV30632500</t>
+  </si>
+  <si>
+    <t>UACU8392590</t>
+  </si>
+  <si>
+    <t>DJBOSA4207164</t>
+  </si>
+  <si>
+    <t>CCLU5130354</t>
+  </si>
+  <si>
+    <t>DJJFKA4207146</t>
+  </si>
+  <si>
+    <t>7062176182</t>
+  </si>
+  <si>
+    <t>6205079923</t>
+  </si>
+  <si>
+    <t>HLXU6401574</t>
+  </si>
+  <si>
+    <t>9071906574-01</t>
+  </si>
+  <si>
+    <t>HLCUCPH190504760</t>
+  </si>
+  <si>
+    <t>FBIU0389950</t>
+  </si>
+  <si>
+    <t>DJBOSA4200032</t>
+  </si>
+  <si>
+    <t>7120849631</t>
+  </si>
+  <si>
+    <t>6198326580</t>
+  </si>
+  <si>
+    <t>CBHU6364090</t>
+  </si>
+  <si>
+    <t>9071906723-01</t>
+  </si>
+  <si>
+    <t>COSU6211530850</t>
+  </si>
+  <si>
+    <t>OOCU4814644</t>
+  </si>
+  <si>
+    <t>DJBWIA4177270</t>
+  </si>
+  <si>
+    <t>7140288061</t>
+  </si>
+  <si>
+    <t>OOLU2619819590</t>
+  </si>
+  <si>
+    <t>CSLU1009140</t>
+  </si>
+  <si>
+    <t>7062176352</t>
+  </si>
+  <si>
+    <t>COSU6205109520</t>
+  </si>
+  <si>
+    <t>BEAU2080419</t>
+  </si>
+  <si>
+    <t>DJJFKA4179138</t>
+  </si>
+  <si>
+    <t>7062175101</t>
+  </si>
+  <si>
+    <t>COSU6211316750</t>
+  </si>
+  <si>
+    <t>CMAU8217297</t>
+  </si>
+  <si>
+    <t>9071906640-01</t>
+  </si>
+  <si>
+    <t>CMDUSEL0862658</t>
+  </si>
+  <si>
+    <t>OOLU4216973</t>
+  </si>
+  <si>
+    <t>9078905256-01</t>
+  </si>
+  <si>
+    <t>2106669000</t>
+  </si>
+  <si>
+    <t>CMAU8258465</t>
+  </si>
+  <si>
+    <t>9077905778-01</t>
+  </si>
+  <si>
+    <t>CMAU1833644</t>
+  </si>
+  <si>
+    <t>DJJFKA4179209</t>
+  </si>
+  <si>
+    <t>7062176688</t>
+  </si>
+  <si>
+    <t>APLUAVQ0101637</t>
+  </si>
+  <si>
+    <t>MAGU2217068</t>
+  </si>
+  <si>
+    <t>9078905132-01</t>
+  </si>
+  <si>
+    <t>OOLU8909600</t>
+  </si>
+  <si>
+    <t>7300383453</t>
+  </si>
+  <si>
+    <t>COSU6199381310</t>
+  </si>
+  <si>
+    <t>CBHU9031581</t>
+  </si>
+  <si>
+    <t>BAFU8611177</t>
+  </si>
+  <si>
+    <t>7250578816</t>
+  </si>
+  <si>
+    <t>HLCULIV190503972</t>
+  </si>
+  <si>
+    <t>BAFU8813141</t>
+  </si>
+  <si>
+    <t>OOLU8887619</t>
+  </si>
+  <si>
+    <t>DJPHLA4199114</t>
+  </si>
+  <si>
+    <t>7300383422</t>
+  </si>
+  <si>
+    <t>COSU6199381300</t>
+  </si>
+  <si>
+    <t>CCLU4469127</t>
+  </si>
+  <si>
+    <t>9071906732-01</t>
+  </si>
+  <si>
+    <t>COSU6211528740</t>
+  </si>
+  <si>
+    <t>CBHU6409894</t>
+  </si>
+  <si>
+    <t>9071906752-01</t>
+  </si>
+  <si>
+    <t>COSU6211530840</t>
+  </si>
+  <si>
+    <t>ONEU0154050</t>
+  </si>
+  <si>
+    <t>719395314</t>
+  </si>
+  <si>
+    <t>ONEYLIVV27930500</t>
+  </si>
+  <si>
+    <t>TCNU3641533</t>
+  </si>
+  <si>
+    <t>7300382951</t>
+  </si>
+  <si>
+    <t>COSU6199381350</t>
+  </si>
+  <si>
+    <t>CSLU6083197</t>
+  </si>
+  <si>
+    <t>BMOU4943046</t>
+  </si>
+  <si>
+    <t>TRIU6733013</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>CHI1264225-CHI8624129</t>
+  </si>
+  <si>
+    <t>TY8NE2002800</t>
+  </si>
+  <si>
+    <t>CCLU4806167</t>
+  </si>
+  <si>
+    <t>9071906748-01</t>
+  </si>
+  <si>
+    <t>COSU6211530870</t>
+  </si>
+  <si>
+    <t>DRYU9475695</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>7062184393</t>
+  </si>
+  <si>
+    <t>ONEYGOAV17999700</t>
+  </si>
+  <si>
+    <t>CCLU3510550</t>
+  </si>
+  <si>
+    <t>DJBOSA4199812</t>
+  </si>
+  <si>
+    <t>7120856005</t>
+  </si>
+  <si>
+    <t>6205085915</t>
+  </si>
+  <si>
+    <t>HLXU3622118</t>
+  </si>
+  <si>
+    <t>024W</t>
+  </si>
+  <si>
+    <t>9077905906-01</t>
+  </si>
+  <si>
+    <t>HLCUVIE190502495</t>
+  </si>
+  <si>
+    <t>KKTU8100333</t>
+  </si>
+  <si>
+    <t>CHI1264718-CHI8627504</t>
+  </si>
+  <si>
+    <t>TCNU7641450</t>
+  </si>
+  <si>
+    <t>0MB2TE1</t>
+  </si>
+  <si>
+    <t>9077905551-01</t>
+  </si>
+  <si>
+    <t>COSU6206772340</t>
+  </si>
+  <si>
+    <t>TCKU4806314</t>
+  </si>
+  <si>
+    <t>CHI1252652-CHI8547145</t>
+  </si>
+  <si>
+    <t>LEHV13958300</t>
+  </si>
+  <si>
+    <t>CAIU3465174</t>
+  </si>
+  <si>
+    <t>CHI1275768-CHI8646684</t>
+  </si>
+  <si>
+    <t>BCNV05638600</t>
+  </si>
+  <si>
+    <t>GCNU4735700</t>
+  </si>
+  <si>
+    <t>BVB0919</t>
+  </si>
+  <si>
+    <t>SA003882530102</t>
+  </si>
+  <si>
+    <t>BVB0919SA00388253</t>
+  </si>
+  <si>
+    <t>CMAU1289227</t>
+  </si>
+  <si>
+    <t>00391</t>
+  </si>
+  <si>
+    <t>DJJFKA4222030</t>
+  </si>
+  <si>
+    <t>7062187450</t>
+  </si>
+  <si>
+    <t>CMDULHV2055137</t>
+  </si>
+  <si>
+    <t>TCLU4699770</t>
+  </si>
+  <si>
+    <t>CHI1275771-CHI8646683</t>
+  </si>
+  <si>
+    <t>OPDU4102239</t>
+  </si>
+  <si>
+    <t>7300385052</t>
+  </si>
+  <si>
+    <t>APLUAKV0109378</t>
+  </si>
+  <si>
+    <t>TCNU3567349</t>
+  </si>
+  <si>
+    <t>APZU4552305</t>
+  </si>
+  <si>
+    <t>CMAU7201547</t>
+  </si>
+  <si>
+    <t>DFSU4332054</t>
   </si>
 </sst>
 </file>
@@ -453,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G124"/>
+      <selection activeCell="A6" sqref="A6:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,79 +1566,79 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -593,6 +1676,2205 @@
       </c>
       <c r="F7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="F71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>269</v>
+      </c>
+      <c r="E79" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81" t="s">
+        <v>276</v>
+      </c>
+      <c r="F81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" t="s">
+        <v>280</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F83" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E85" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" t="s">
+        <v>295</v>
+      </c>
+      <c r="F87" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" t="s">
+        <v>302</v>
+      </c>
+      <c r="F89" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>311</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>315</v>
+      </c>
+      <c r="F93" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>326</v>
+      </c>
+      <c r="E97" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E98" t="s">
+        <v>326</v>
+      </c>
+      <c r="F98" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" t="s">
+        <v>330</v>
+      </c>
+      <c r="F99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" t="s">
+        <v>330</v>
+      </c>
+      <c r="F100" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>335</v>
+      </c>
+      <c r="F101" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>341</v>
+      </c>
+      <c r="F103" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>344</v>
+      </c>
+      <c r="E104" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" t="s">
+        <v>347</v>
+      </c>
+      <c r="E105" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>349</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
+      </c>
+      <c r="E106" t="s">
+        <v>347</v>
+      </c>
+      <c r="F106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>347</v>
+      </c>
+      <c r="E107" t="s">
+        <v>347</v>
+      </c>
+      <c r="F107" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" t="s">
+        <v>353</v>
+      </c>
+      <c r="F108" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>355</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>356</v>
+      </c>
+      <c r="F109" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>358</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" t="s">
+        <v>360</v>
+      </c>
+      <c r="F110" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" t="s">
+        <v>364</v>
+      </c>
+      <c r="F111" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>367</v>
+      </c>
+      <c r="D112" t="s">
+        <v>368</v>
+      </c>
+      <c r="F112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>371</v>
+      </c>
+      <c r="F113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" t="s">
+        <v>374</v>
+      </c>
+      <c r="F114" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>376</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>379</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>382</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" t="s">
+        <v>384</v>
+      </c>
+      <c r="F117" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" t="s">
+        <v>388</v>
+      </c>
+      <c r="E118" t="s">
+        <v>389</v>
+      </c>
+      <c r="F118" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" t="s">
+        <v>392</v>
+      </c>
+      <c r="F119" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
+        <v>387</v>
+      </c>
+      <c r="D120" t="s">
+        <v>394</v>
+      </c>
+      <c r="E120" t="s">
+        <v>394</v>
+      </c>
+      <c r="F120" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" t="s">
+        <v>394</v>
+      </c>
+      <c r="E122" t="s">
+        <v>394</v>
+      </c>
+      <c r="F122" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" t="s">
+        <v>394</v>
+      </c>
+      <c r="E123" t="s">
+        <v>394</v>
+      </c>
+      <c r="F123" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" t="s">
+        <v>394</v>
+      </c>
+      <c r="E124" t="s">
+        <v>394</v>
+      </c>
+      <c r="F124" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
